--- a/data/trans_camb/P1434-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1434-Provincia-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.234826745524434</v>
+        <v>0.4265626553072581</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.249152794440015</v>
+        <v>0.2283369702848818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.652745623521796</v>
+        <v>-1.488075020533984</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.935928164279037</v>
+        <v>7.273106644014139</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.741305664328177</v>
+        <v>6.540118441920225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.287360798626339</v>
+        <v>3.696820187709535</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1141144205696052</v>
+        <v>0.0004329807223850694</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1009342861784377</v>
+        <v>-0.09028332637631914</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4359184486820081</v>
+        <v>-0.4000552890060164</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.929796867432721</v>
+        <v>5.428282561840576</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.558286221073798</v>
+        <v>4.334405900966451</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.287969905012318</v>
+        <v>3.293976586852752</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>-0.9081483820116212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.829610859484433</v>
+        <v>-0.8296108594844334</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.519468325580727</v>
+        <v>-1.770258317540588</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.127886231890351</v>
+        <v>-3.152248750686573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.844334956895447</v>
+        <v>-2.819110803148481</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.225740971911829</v>
+        <v>3.069949935707414</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.06281123297999</v>
+        <v>0.9242775420606695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.09303842561395</v>
+        <v>1.101781874640677</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>-0.3055101265909432</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.279089324743263</v>
+        <v>-0.2790893247432632</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4172505111099284</v>
+        <v>-0.4432463865250558</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7063391034024012</v>
+        <v>-0.742672367910722</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7054449084507409</v>
+        <v>-0.6972143315989304</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.802435322393862</v>
+        <v>1.507019748457068</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6863841053235575</v>
+        <v>0.5712950895789188</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5816578408228297</v>
+        <v>0.624081006481388</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>2.610435084068234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.128945115311367</v>
+        <v>5.128945115311369</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.001510548296785</v>
+        <v>-3.18648717358123</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2416417798823832</v>
+        <v>-0.09897244437066222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.398383329792882</v>
+        <v>2.095218725083836</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.695469051492954</v>
+        <v>1.569920998395739</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.282242938173819</v>
+        <v>5.738674091646982</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.898656747339769</v>
+        <v>7.855652578888249</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>1.06845927114625</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.099293329721222</v>
+        <v>2.099293329721223</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8350032827282761</v>
+        <v>-0.8209387859399809</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1355410389138117</v>
+        <v>-0.2179574275428864</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5558236078704779</v>
+        <v>0.3573826326996804</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.64377089283293</v>
+        <v>1.419099849812786</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.919428059532193</v>
+        <v>4.280147579701792</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.931802122111478</v>
+        <v>6.283285683063319</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>1.999573978349908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.58005078687107</v>
+        <v>4.580050786871071</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.966397187862718</v>
+        <v>-1.029037860362097</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.05335239818141127</v>
+        <v>-0.0544812425380441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.98362826150045</v>
+        <v>2.183643849042114</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.47886851773471</v>
+        <v>3.377476603145583</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.260899147196199</v>
+        <v>4.291784286605813</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.424871907315802</v>
+        <v>7.697112104964058</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>1.408693961231994</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>3.226632250398336</v>
+        <v>3.226632250398337</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6207345563343407</v>
+        <v>-0.5867037392489963</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2113623618330395</v>
+        <v>-0.2424459748385852</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6667612202705832</v>
+        <v>0.5045210323915332</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.585472062878126</v>
+        <v>6.319827537433544</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7.270154791076821</v>
+        <v>7.982878787508013</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10.96226127690092</v>
+        <v>12.42181138473699</v>
       </c>
     </row>
     <row r="28">
@@ -1014,7 +1014,7 @@
         <v>0.9192441342817177</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.84847961155266</v>
+        <v>2.848479611552658</v>
       </c>
     </row>
     <row r="29">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.147013154229133</v>
+        <v>-1.399411635712497</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.667586346540411</v>
+        <v>-1.555407401617071</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2342966853903959</v>
+        <v>0.1677830726118195</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.703190545580869</v>
+        <v>4.4352813522224</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.492270573886956</v>
+        <v>3.860586712103926</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.4743325568172</v>
+        <v>5.566187700570007</v>
       </c>
     </row>
     <row r="31">
@@ -1065,7 +1065,7 @@
         <v>0.5654642897832429</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.752215152036034</v>
+        <v>1.752215152036033</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.651471479573254</v>
+        <v>-0.7409833478049235</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7037603335280282</v>
+        <v>-0.6765990389116868</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2112456591102941</v>
+        <v>-0.09826180727023635</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>7.754693508047404</v>
+        <v>7.103405736960822</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>6.281753318140721</v>
+        <v>7.572876877387775</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>9.537810033186375</v>
+        <v>12.51446169072766</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.393172203581162</v>
+        <v>-1.076591179974112</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.442656615595023</v>
+        <v>-1.457269531753093</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.883602027596478</v>
+        <v>5.078619654151278</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.136981343456309</v>
+        <v>3.303020590265596</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.749859385252689</v>
+        <v>2.938214388095905</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.43449607086877</v>
+        <v>11.04929017585798</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7639419258914792</v>
+        <v>-0.6436178385673591</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7164363811128447</v>
+        <v>-0.6986871609737175</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.643628724227019</v>
+        <v>1.58087099343027</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>5.316988106696104</v>
+        <v>7.219760136377109</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>6.020719704170849</v>
+        <v>6.630560585366466</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>23.24308317059786</v>
+        <v>26.34007408975956</v>
       </c>
     </row>
     <row r="40">
@@ -1226,7 +1226,7 @@
         <v>-0.266073217467775</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.277219170705395</v>
+        <v>1.277219170705394</v>
       </c>
     </row>
     <row r="41">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.269483338949843</v>
+        <v>-1.386893362899963</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.266497382457286</v>
+        <v>-2.120616281980911</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.708165638965048</v>
+        <v>-0.798506388131357</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.832827881310957</v>
+        <v>2.91134852315334</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.65146607944651</v>
+        <v>1.766156928046144</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.389326899489362</v>
+        <v>3.233684088473506</v>
       </c>
     </row>
     <row r="43">
@@ -1277,7 +1277,7 @@
         <v>-0.08082887978678012</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.3879991973368032</v>
+        <v>0.3879991973368027</v>
       </c>
     </row>
     <row r="44">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3251698275894868</v>
+        <v>-0.3352389538886774</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5208417744585502</v>
+        <v>-0.5005498867275071</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.179717384520733</v>
+        <v>-0.1913692234794841</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.143802111825582</v>
+        <v>1.252620145747147</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7122897094854871</v>
+        <v>0.7579906962411359</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.40569325255045</v>
+        <v>1.471051551239303</v>
       </c>
     </row>
     <row r="46">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.911437123517751</v>
+        <v>-3.66003541933659</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.993509197596388</v>
+        <v>-5.150722468221571</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.9312913852728236</v>
+        <v>-1.224503035100723</v>
       </c>
     </row>
     <row r="48">
@@ -1360,13 +1360,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7141112899815146</v>
+        <v>0.887165249713435</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.063540685837496</v>
+        <v>-1.051008643321578</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.402987722872027</v>
+        <v>3.623712950333766</v>
       </c>
     </row>
     <row r="49">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5487042126907337</v>
+        <v>-0.5106575536473367</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7031412914559327</v>
+        <v>-0.7033285208410344</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1385509617273931</v>
+        <v>-0.1679549385710306</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1500769781523907</v>
+        <v>0.1934993015400205</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2076185971389355</v>
+        <v>-0.1935162864495424</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7165464164553277</v>
+        <v>0.7236014945489444</v>
       </c>
     </row>
     <row r="52">
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.4684410168525508</v>
+        <v>-0.4948708548886007</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.8733362444391395</v>
+        <v>-0.8247494578955282</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.327735242489719</v>
+        <v>1.373986726385754</v>
       </c>
     </row>
     <row r="54">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.338214504445362</v>
+        <v>1.337036992743557</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.8253476654271511</v>
+        <v>0.8834604915966484</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.094042144815142</v>
+        <v>3.131367177868578</v>
       </c>
     </row>
     <row r="55">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1261000669191879</v>
+        <v>-0.1326022563873765</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.239701259892541</v>
+        <v>-0.2262832171924074</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.3650702308423035</v>
+        <v>0.3665519272361301</v>
       </c>
     </row>
     <row r="57">
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4758803164161775</v>
+        <v>0.4830316264138384</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2894692359474672</v>
+        <v>0.3081765956268483</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.098456939841904</v>
+        <v>1.115936609766203</v>
       </c>
     </row>
     <row r="58">
